--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,7 +5285,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:22.438552</t>
+    <t>2024-11-08 02:13:58.911811</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,7 +5285,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:58.911811</t>
+    <t>2024-11-08 09:00:11.521918</t>
   </si>
   <si>
     <t>version</t>
@@ -5297,7 +5297,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -506,7 +506,7 @@
     <t>intern afgewerkt</t>
   </si>
   <si>
-    <t>3.4</t>
+    <t>naam dataleverancier</t>
   </si>
   <si>
     <t>naam auteur opmerking</t>
@@ -5285,19 +5285,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 09:00:11.521918</t>
+    <t>2024-11-12 08:42:23.496204</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.3</t>
+    <t>2.0.4</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>source</t>
@@ -26504,7 +26504,7 @@
     <col min="30" max="30" width="16.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="12.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="22.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="40.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="18.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="42.7109375" style="2" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="50.7109375" style="2" hidden="1" customWidth="1"/>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,13 +5285,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:23.496204</t>
+    <t>2024-12-02 16:44:16.484569</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,13 +5285,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:16.484569</t>
+    <t>2024-12-10 17:55:23.442964</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,7 +5285,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:46.000516</t>
+    <t>2024-12-20 14:58:18.290167</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,13 +5285,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:18.290167</t>
+    <t>2024-12-23 11:42:08.221736</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6782" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="1763">
   <si>
     <t>naam</t>
   </si>
@@ -5285,13 +5285,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-23 11:42:08.221736</t>
+    <t>2025-02-14 13:20:06.714179</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.8</t>
+    <t>2.0.9</t>
+  </si>
+  <si>
+    <t>xsd-version</t>
+  </si>
+  <si>
+    <t>9.1.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -29453,7 +29459,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29491,6 +29497,14 @@
         <v>1760</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6786" uniqueCount="1765">
   <si>
     <t>naam</t>
   </si>
@@ -5285,7 +5285,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:06.714179</t>
+    <t>2025-02-14 14:05:37.330042</t>
   </si>
   <si>
     <t>version</t>
@@ -5294,10 +5294,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -29459,7 +29465,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29505,6 +29511,14 @@
         <v>1762</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,13 +5285,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:37.330042</t>
+    <t>2025-02-24 16:59:58.796106</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/bodem_template_oefen.xlsx
+++ b/data/bodem_template_oefen.xlsx
@@ -5285,13 +5285,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:58.796106</t>
+    <t>2025-02-28 11:24:53.111333</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
